--- a/data/trans_dic/P57_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Edad-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.433963926967913</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6590023721055828</v>
+        <v>0.6590023721055825</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.4364280609973056</v>
@@ -624,7 +624,7 @@
         <v>0.4351554644767935</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6214877422664574</v>
+        <v>0.6214877422664572</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3845545831935562</v>
+        <v>0.3819266078929868</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5774990434391558</v>
+        <v>0.5746805209032176</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3884448620879596</v>
+        <v>0.3926191494261623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5135332474661152</v>
+        <v>0.5048466676268386</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4000029810577637</v>
+        <v>0.4020783432803723</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5679864854454585</v>
+        <v>0.5703392633945048</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4827532271374132</v>
+        <v>0.4811567104341209</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7307220186783362</v>
+        <v>0.7303923111483643</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4859406249952911</v>
+        <v>0.4837609729722888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6533883686193632</v>
+        <v>0.6475209993153965</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4680853600329369</v>
+        <v>0.4706871623694192</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6746496878274327</v>
+        <v>0.6705803540032437</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2990877668452901</v>
+        <v>0.2955512658159066</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4757343294022812</v>
+        <v>0.4788682485063728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3154473557035342</v>
+        <v>0.3152442500703591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4947554612529397</v>
+        <v>0.4915463876635586</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3144531667139062</v>
+        <v>0.3174215104352083</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.498150227487515</v>
+        <v>0.5020670684146382</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3708410303053121</v>
+        <v>0.3727451636746002</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5912825492665862</v>
+        <v>0.5981906694092771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3958015676656351</v>
+        <v>0.3932315622175204</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5855268023819219</v>
+        <v>0.5878806531173866</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3706229905851112</v>
+        <v>0.3718691545641503</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5767916426839828</v>
+        <v>0.574938412838535</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3029418865037201</v>
+        <v>0.3000392643388765</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4644611143353853</v>
+        <v>0.4641858508411727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2736236561186089</v>
+        <v>0.2705805624829598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4708983328439744</v>
+        <v>0.4675572409626719</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2959084089269025</v>
+        <v>0.2956475006292411</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4795159247812367</v>
+        <v>0.4757587560592009</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3748670145770541</v>
+        <v>0.3752609514877376</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5440347654043731</v>
+        <v>0.5450878918003894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3450372593793704</v>
+        <v>0.3407683964565563</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5381144678878826</v>
+        <v>0.5381979931149409</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3490717625311413</v>
+        <v>0.3475532640935557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.529455661816673</v>
+        <v>0.5305414212002521</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.2449826704625419</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.4205066759145231</v>
+        <v>0.420506675914523</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2309346886262836</v>
+        <v>0.2335245765678714</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4197227761339816</v>
+        <v>0.4183088153446856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1905789045533095</v>
+        <v>0.1924029973481323</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3598654092712611</v>
+        <v>0.3596006400578751</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2209078540137639</v>
+        <v>0.2195330642723034</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3976837514401296</v>
+        <v>0.3960594171687223</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.305706249071642</v>
+        <v>0.30628697172416</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4946283093744825</v>
+        <v>0.4976625985156328</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2585338805200936</v>
+        <v>0.2594753593511853</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4150879851542425</v>
+        <v>0.4147587802766349</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2704616987641039</v>
+        <v>0.2688283584944</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.445540777263534</v>
+        <v>0.4462433507972706</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.220874306457056</v>
+        <v>0.2230275054718868</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3163420223829135</v>
+        <v>0.3166331500335184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1642018492038231</v>
+        <v>0.1606054249242444</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2867140786836954</v>
+        <v>0.2869986467126369</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2021794718471354</v>
+        <v>0.1991096534198953</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3113451483949146</v>
+        <v>0.3125341286019939</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3038426503517196</v>
+        <v>0.3058133119865116</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3903600893746863</v>
+        <v>0.391914085885991</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2372740619371035</v>
+        <v>0.238891202097044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3447413572188144</v>
+        <v>0.3471583533167525</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2590409082413487</v>
+        <v>0.2581971125166768</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3588480331437556</v>
+        <v>0.3584555250181135</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2003664516458579</v>
+        <v>0.2033015359271871</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3610643458999175</v>
+        <v>0.3634545276954081</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.128077401067769</v>
+        <v>0.1299793977588354</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3055473833339691</v>
+        <v>0.3079054335563883</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1733281871867019</v>
+        <v>0.1748449878537613</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3427671724570133</v>
+        <v>0.3431772228919969</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2992786122559465</v>
+        <v>0.2955392004039239</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4437519037258902</v>
+        <v>0.4395814718459712</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.202925349044675</v>
+        <v>0.2095630211545214</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3706158455870681</v>
+        <v>0.3766975621068202</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2368491949843319</v>
+        <v>0.2385643958949769</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3968932901625988</v>
+        <v>0.3953159288548008</v>
       </c>
     </row>
     <row r="22">
@@ -1110,13 +1110,13 @@
         <v>0.1313345459636366</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2555966495047697</v>
+        <v>0.2555966495047696</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1531047236407727</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.284289441448031</v>
+        <v>0.2842894414480311</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1419747764597953</v>
+        <v>0.1437256081005662</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.280678757866212</v>
+        <v>0.2811959443127371</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09597879604729644</v>
+        <v>0.09346188159160318</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2264891553425582</v>
+        <v>0.2250928704079289</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1275779116155205</v>
+        <v>0.1248371323165841</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2591284830553723</v>
+        <v>0.2598991977790431</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2348872897965875</v>
+        <v>0.2309207302474462</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3735743288536239</v>
+        <v>0.3698482977378304</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1756390560730069</v>
+        <v>0.1796881202432934</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2884879560069998</v>
+        <v>0.289065890602922</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1881154898037166</v>
+        <v>0.1853998282611996</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3126480572004121</v>
+        <v>0.3116784291617436</v>
       </c>
     </row>
     <row r="25">
@@ -1186,7 +1186,7 @@
         <v>0.303542595721792</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.4640773379305981</v>
+        <v>0.464077337930598</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.2632355943658629</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2888884188953999</v>
+        <v>0.2878117499622123</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4444671139199283</v>
+        <v>0.4459027282837472</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2481194828648475</v>
+        <v>0.2483757961060622</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.397616091021017</v>
+        <v>0.3969946208803338</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2725492784698017</v>
+        <v>0.2713287601490773</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.4265753071111628</v>
+        <v>0.4260608159330918</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3206149164345699</v>
+        <v>0.3195302868229622</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4822589675119416</v>
+        <v>0.483508347757528</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2785441665670674</v>
+        <v>0.2794565142534241</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4265860052070894</v>
+        <v>0.4270878362871848</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2940936043540789</v>
+        <v>0.2939475263534146</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4504103609900552</v>
+        <v>0.4491188203396612</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>161306</v>
+        <v>160204</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>235500</v>
+        <v>234351</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>152560</v>
+        <v>154199</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>186162</v>
+        <v>183013</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>324886</v>
+        <v>326571</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>437523</v>
+        <v>439335</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>202497</v>
+        <v>201827</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>297983</v>
+        <v>297849</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>190851</v>
+        <v>189995</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>236861</v>
+        <v>234734</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>380183</v>
+        <v>382296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>519686</v>
+        <v>516551</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>175252</v>
+        <v>173180</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>226873</v>
+        <v>228367</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>176363</v>
+        <v>176249</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>247423</v>
+        <v>245818</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>360062</v>
+        <v>363461</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>486684</v>
+        <v>490510</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>217296</v>
+        <v>218412</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>281977</v>
+        <v>285271</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>221288</v>
+        <v>219851</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>292817</v>
+        <v>293994</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>424379</v>
+        <v>425806</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>563515</v>
+        <v>561704</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>201846</v>
+        <v>199912</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>288355</v>
+        <v>288184</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>180715</v>
+        <v>178705</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>292583</v>
+        <v>290507</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>392592</v>
+        <v>392246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>595638</v>
+        <v>590971</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>249768</v>
+        <v>250031</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>337757</v>
+        <v>338411</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>227881</v>
+        <v>225061</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>334346</v>
+        <v>334398</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>463126</v>
+        <v>461111</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>657671</v>
+        <v>659020</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>148445</v>
+        <v>150110</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>294065</v>
+        <v>293074</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>123069</v>
+        <v>124247</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>263199</v>
+        <v>263005</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>284654</v>
+        <v>282883</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>569483</v>
+        <v>567157</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>196508</v>
+        <v>196881</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>346545</v>
+        <v>348671</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>166952</v>
+        <v>167560</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>303588</v>
+        <v>303347</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>348508</v>
+        <v>346403</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>638014</v>
+        <v>639020</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>105325</v>
+        <v>106352</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>191441</v>
+        <v>191617</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>81412</v>
+        <v>79629</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>173678</v>
+        <v>173850</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>196651</v>
+        <v>193665</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>377015</v>
+        <v>378455</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>144889</v>
+        <v>145828</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>236235</v>
+        <v>237175</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>117641</v>
+        <v>118443</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>208828</v>
+        <v>210292</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>251958</v>
+        <v>251137</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>434538</v>
+        <v>434062</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>66597</v>
+        <v>67573</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>146178</v>
+        <v>147146</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>48383</v>
+        <v>49101</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>133854</v>
+        <v>134887</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>123087</v>
+        <v>124164</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>288929</v>
+        <v>289275</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>99474</v>
+        <v>98231</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>179654</v>
+        <v>177966</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>76657</v>
+        <v>79165</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>162359</v>
+        <v>165023</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>168196</v>
+        <v>169414</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>334554</v>
+        <v>333224</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>36487</v>
+        <v>36937</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>85784</v>
+        <v>85942</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>38054</v>
+        <v>37057</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>102730</v>
+        <v>102096</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>83370</v>
+        <v>81579</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>196732</v>
+        <v>197317</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>60366</v>
+        <v>59346</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>114176</v>
+        <v>113037</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>69639</v>
+        <v>71244</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>130851</v>
+        <v>131113</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>122931</v>
+        <v>121156</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>237364</v>
+        <v>236628</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>976655</v>
+        <v>973015</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1565321</v>
+        <v>1570377</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>875391</v>
+        <v>876296</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1476236</v>
+        <v>1473929</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1882999</v>
+        <v>1874566</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3086064</v>
+        <v>3082342</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1083913</v>
+        <v>1080247</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1698416</v>
+        <v>1702816</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>982733</v>
+        <v>985952</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1583794</v>
+        <v>1585657</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2031845</v>
+        <v>2030836</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>3258499</v>
+        <v>3249155</v>
       </c>
     </row>
     <row r="36">
